--- a/biology/Botanique/Canneberge_à_gros_fruits/Canneberge_à_gros_fruits.xlsx
+++ b/biology/Botanique/Canneberge_à_gros_fruits/Canneberge_à_gros_fruits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canneberge_%C3%A0_gros_fruits</t>
+          <t>Canneberge_à_gros_fruits</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaccinium macrocarpon · Airelle à gros fruits, gros atocas
-La Canneberge à gros fruits[1] (Vaccinium macrocarpon Aiton) est une espèce de plante à fleurs de la famille des Ericaceae. C'est un arbuste tapissant qui pousse en milieu humide, dans l'est de l'Amérique du Nord. Comme plusieurs espèces du même genre, il donne des fruits rouges comestibles appelés canneberges ou airelles.
+La Canneberge à gros fruits (Vaccinium macrocarpon Aiton) est une espèce de plante à fleurs de la famille des Ericaceae. C'est un arbuste tapissant qui pousse en milieu humide, dans l'est de l'Amérique du Nord. Comme plusieurs espèces du même genre, il donne des fruits rouges comestibles appelés canneberges ou airelles.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canneberge_%C3%A0_gros_fruits</t>
+          <t>Canneberge_à_gros_fruits</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique : Vaccinium macrocarpon Aiton, 1789, syn. Oxycoccus macrocarpon, parfois aussi  Vaccinium macrocarpos ou Oxycoccus macrocarpon)
-Nom normalisé, accepté, recommandé ou typique : Canneberge à gros fruits[2],[3]
-Autres noms vulgaires (vulgarisation scientifique) ou noms vernaculaires (langage courant) : Airelle à gros fruits[2],[3],[4], graines[2], grande canneberge[2]; gros atoca[2] ou gros atocas[3],[2],[4] notamment au Québec; pommes de pré[2],[4] et mocauque sont plus utilisés en français acadien[4]; baie de grue, vaccinium à gros fruits[5].</t>
+Nom normalisé, accepté, recommandé ou typique : Canneberge à gros fruits,
+Autres noms vulgaires (vulgarisation scientifique) ou noms vernaculaires (langage courant) : Airelle à gros fruits graines, grande canneberge; gros atoca ou gros atocas notamment au Québec; pommes de pré, et mocauque sont plus utilisés en français acadien; baie de grue, vaccinium à gros fruits.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canneberge_%C3%A0_gros_fruits</t>
+          <t>Canneberge_à_gros_fruits</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste tapissant, aux rameaux fins. Les feuilles persistantes de 1 à 2 cm de long sont oblongues, entières, vert foncé et deviennent bronze en hiver.
 En été, les fleurs campanulées de 5 à 10 mm, roses, divisées en quatre lobes étroits sont portées par de fins pédoncules. Elles pendent à l'aisselle des feuilles, seules ou en bouquets de deux à dix.
-Elle porte des baies sphériques de couleur rouge foncé, au goût acidulé, de 1 à 2 cm de diamètre. Elles sont plus grandes que celles de la seule canneberge qui pousse aussi en Europe : Vaccinium oxycoccos[4].
+Elle porte des baies sphériques de couleur rouge foncé, au goût acidulé, de 1 à 2 cm de diamètre. Elles sont plus grandes que celles de la seule canneberge qui pousse aussi en Europe : Vaccinium oxycoccos.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canneberge_%C3%A0_gros_fruits</t>
+          <t>Canneberge_à_gros_fruits</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,14 @@
           <t>Utilisation des baies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Très apprécié sous forme de jus, de fruit séché, de confiture ou de sauce. Au Canada, la sauce aux atocas est traditionnelle à Noël.
 Au Québec, où on la nomme aussi atoca ou ataca, elle est consommée traditionnellement en confiture. Aujourd'hui, elle est cultivée industriellement dans des cannebergières, terrains aménagés qui, à l'image des rizières, peuvent être ennoyés pour la culture et surtout pour la récolte qui a lieu par flottaison des baies. La destination principale de la production est le jus, très riche en vitamine C. C'est d'ailleurs ce qui l'a fait connaître en France. La production principale se fait aux États-Unis[réf. souhaitée].
-Il n'y a pas de consensus sur la prévention par la canneberge. Boire du jus de canneberge (Vaccinium macrocarpon) diminuerait de 20 % les infections urinaires[6],[7]. En effet, ce fruit originaire d'Amérique du Nord est le seul à posséder des molécules (les proanthocyanidines de type A, ou PAC) qui empêchent les bactéries de s'accrocher à la paroi urinaire. L'actualisation en 2012 des revues systématiques des publications scientifiques par la Collaboration Cochrane ne permet pas de recommander le jus de canneberge pour la prévention des infections urinaires à répétition[8]. Cependant en 2017, l'évaluation de son efficacité par sous groupe montre un bénéfice chez les enfants de 2 à 17 ans, les adultes de 36 à 55 ans, après une chirurgie gynécologique et lors de traitement par radiothérapie contre un cancer de la prostate[9].
-Une étude contrôlée randomisée en double aveugle a révélé que l'ingestion quotidienne de poudre de canneberge entière sur une période d'un mois peut améliorer la fonction vasculaire chez les hommes en bonne santé[10], entraînant potentiellement des améliorations prolongées de la fonction endothéliale et offrant une protection contre l'athérosclérose et les maladies cardiovasculaires[11].
+Il n'y a pas de consensus sur la prévention par la canneberge. Boire du jus de canneberge (Vaccinium macrocarpon) diminuerait de 20 % les infections urinaires,. En effet, ce fruit originaire d'Amérique du Nord est le seul à posséder des molécules (les proanthocyanidines de type A, ou PAC) qui empêchent les bactéries de s'accrocher à la paroi urinaire. L'actualisation en 2012 des revues systématiques des publications scientifiques par la Collaboration Cochrane ne permet pas de recommander le jus de canneberge pour la prévention des infections urinaires à répétition. Cependant en 2017, l'évaluation de son efficacité par sous groupe montre un bénéfice chez les enfants de 2 à 17 ans, les adultes de 36 à 55 ans, après une chirurgie gynécologique et lors de traitement par radiothérapie contre un cancer de la prostate.
+Une étude contrôlée randomisée en double aveugle a révélé que l'ingestion quotidienne de poudre de canneberge entière sur une période d'un mois peut améliorer la fonction vasculaire chez les hommes en bonne santé, entraînant potentiellement des améliorations prolongées de la fonction endothéliale et offrant une protection contre l'athérosclérose et les maladies cardiovasculaires.
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Canneberge_%C3%A0_gros_fruits</t>
+          <t>Canneberge_à_gros_fruits</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 avril 2013)[12] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 avril 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Vaccinium macrocarpon var. intermedium A. Gray
 forme Vaccinium macrocarpon fo. eburnea MacKeever
 Selon[réf. nécessaire] : 
